--- a/microservices/chat_service/data/chat.xlsx
+++ b/microservices/chat_service/data/chat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,137 +449,33 @@
       <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>aloo</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>abc</t>
-        </is>
-      </c>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sao thế</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>alo</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>sdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>why you do that</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>ss</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>huhu</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>alo shop</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>ơi em</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
